--- a/Income/UDR_inc.xlsx
+++ b/Income/UDR_inc.xlsx
@@ -2177,16 +2177,16 @@
         <v>0.0443</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1124</v>
+        <v>0.1008</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1543</v>
+        <v>0.1425</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1469</v>
+        <v>0.1343</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1702</v>
+        <v>0.157</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1484</v>
@@ -2304,16 +2304,16 @@
         <v>0.2643</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2911</v>
+        <v>0.2826</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.3272</v>
+        <v>0.3186</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.3456</v>
+        <v>0.3365</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.3749</v>
+        <v>0.3654</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.3721</v>
@@ -3978,16 +3978,16 @@
         <v>0.4822</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.499</v>
+        <v>0.4905</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.5262</v>
+        <v>0.5176</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.5348</v>
+        <v>0.5256</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.557</v>
+        <v>0.5474</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.5478</v>
